--- a/data/trans_orig/P1402-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1402-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C41E820B-9D99-4CFA-B6AC-BD6F3D73B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F19C48A-F5FE-415F-A9C6-BEB15AD78348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B69E404C-3796-48E6-A9F2-0DFCE51782C1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{12589996-1B3D-4C5F-A2DD-D0D1459D7F6E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="329">
   <si>
     <t>Población con diagnóstico de diabetes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>11,84%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>13,21%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>88,16%</t>
   </si>
   <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
   </si>
   <si>
     <t>85,72%</t>
   </si>
   <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>86,79%</t>
   </si>
   <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,55 +164,55 @@
     <t>2,99%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -230,49 +230,55 @@
     <t>2,3%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>0,82%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>97,7%</t>
   </si>
   <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
   <si>
     <t>98,23%</t>
   </si>
   <si>
-    <t>99,18%</t>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>97,95%</t>
   </si>
   <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>0,03%</t>
@@ -281,55 +287,55 @@
     <t>5,66%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
   </si>
   <si>
     <t>94,34%</t>
   </si>
   <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
   </si>
   <si>
     <t>93,77%</t>
   </si>
   <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -347,55 +353,55 @@
     <t>17,46%</t>
   </si>
   <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
   </si>
   <si>
     <t>18,3%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
   </si>
   <si>
     <t>82,54%</t>
   </si>
   <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
   </si>
   <si>
     <t>81,7%</t>
   </si>
   <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -404,49 +410,55 @@
     <t>3,76%</t>
   </si>
   <si>
-    <t>4,74%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>96,24%</t>
   </si>
   <si>
-    <t>95,26%</t>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>96,9%</t>
   </si>
   <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>96,55%</t>
   </si>
   <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -461,109 +473,103 @@
     <t>2,71%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>4,91%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>97,29%</t>
   </si>
   <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>95,09%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>97,86%</t>
   </si>
   <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>8,08%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
   </si>
   <si>
     <t>92,48%</t>
   </si>
   <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
   </si>
   <si>
     <t>91,38%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
   </si>
   <si>
     <t>91,92%</t>
   </si>
   <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
   </si>
   <si>
     <t>Población con diagnóstico de diabetes en 2015 (Tasa respuesta: 100,0%)</t>
@@ -578,55 +584,55 @@
     <t>19,75%</t>
   </si>
   <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
   </si>
   <si>
     <t>19,79%</t>
   </si>
   <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
   </si>
   <si>
     <t>80,25%</t>
   </si>
   <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
   </si>
   <si>
     <t>80,21%</t>
   </si>
   <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
   </si>
   <si>
     <t>80,23%</t>
   </si>
   <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -635,55 +641,55 @@
     <t>5,97%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
   </si>
   <si>
     <t>94,03%</t>
   </si>
   <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
   </si>
   <si>
     <t>95,69%</t>
   </si>
   <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
   </si>
   <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -695,331 +701,331 @@
     <t>4,35%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
   </si>
   <si>
     <t>97,32%</t>
   </si>
   <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>96,49%</t>
   </si>
   <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>8,79%</t>
   </si>
   <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
     <t>7,9%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
   </si>
   <si>
     <t>90,61%</t>
   </si>
   <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
   </si>
   <si>
     <t>91,53%</t>
   </si>
   <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>93,19%</t>
   </si>
   <si>
     <t>91,52%</t>
   </si>
   <si>
-    <t>90,9%</t>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987F33DF-0F40-46FC-B56C-0E708956A2CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD55AE0-F456-455A-B6A8-6043C1731EE4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2039,7 +2045,7 @@
         <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -2048,13 +2054,13 @@
         <v>21093</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,13 +2075,13 @@
         <v>538746</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>444</v>
@@ -2084,13 +2090,13 @@
         <v>467981</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>959</v>
@@ -2099,13 +2105,13 @@
         <v>1006727</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,7 +2215,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2230,13 @@
         <v>185467</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>224</v>
@@ -2239,13 +2245,13 @@
         <v>229249</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>416</v>
@@ -2254,13 +2260,13 @@
         <v>414716</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2281,13 @@
         <v>3091077</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>3073</v>
@@ -2290,28 +2296,28 @@
         <v>3149949</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>6095</v>
       </c>
       <c r="N18" s="7">
-        <v>6241024</v>
+        <v>6241025</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,7 +2359,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -2367,7 +2373,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB3E375-F7A2-4BE3-8296-B26207A73E80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35DE600-0B6F-4E1D-B005-142D04C26422}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2403,7 +2409,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2516,7 +2522,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2546,7 +2552,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,13 +2567,13 @@
         <v>170176</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
         <v>233</v>
@@ -2576,13 +2582,13 @@
         <v>244837</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M5" s="7">
         <v>387</v>
@@ -2591,13 +2597,13 @@
         <v>415013</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2618,13 @@
         <v>804467</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H6" s="7">
         <v>1014</v>
@@ -2627,13 +2633,13 @@
         <v>1092959</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M6" s="7">
         <v>1768</v>
@@ -2642,13 +2648,13 @@
         <v>1897427</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,7 +2728,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2767,13 +2773,13 @@
         <v>73916</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H9" s="7">
         <v>50</v>
@@ -2782,13 +2788,13 @@
         <v>54361</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M9" s="7">
         <v>121</v>
@@ -2797,13 +2803,13 @@
         <v>128276</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2824,13 @@
         <v>1890041</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="H10" s="7">
         <v>1583</v>
@@ -2833,28 +2839,28 @@
         <v>1700231</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>3368</v>
       </c>
       <c r="N10" s="7">
-        <v>3590274</v>
+        <v>3590273</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,7 +2902,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2928,7 +2934,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2943,7 +2949,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2958,7 +2964,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,13 +2979,13 @@
         <v>13035</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -2988,13 +2994,13 @@
         <v>7060</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -3003,13 +3009,13 @@
         <v>20095</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3030,13 @@
         <v>468146</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="H14" s="7">
         <v>406</v>
@@ -3039,13 +3045,13 @@
         <v>451571</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>833</v>
@@ -3054,13 +3060,13 @@
         <v>919717</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,7 +3170,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3185,13 @@
         <v>257126</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H17" s="7">
         <v>289</v>
@@ -3194,13 +3200,13 @@
         <v>306258</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>525</v>
@@ -3209,13 +3215,13 @@
         <v>563384</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3236,13 @@
         <v>3162656</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H18" s="7">
         <v>3003</v>
@@ -3245,28 +3251,28 @@
         <v>3244762</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M18" s="7">
         <v>5969</v>
       </c>
       <c r="N18" s="7">
-        <v>6407417</v>
+        <v>6407418</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,7 +3314,7 @@
         <v>6494</v>
       </c>
       <c r="N19" s="7">
-        <v>6970801</v>
+        <v>6970802</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3322,7 +3328,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3341,7 +3347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2069F9-087E-4678-AF73-411511B8591F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468BB53A-F748-4251-92BF-82F99E366E11}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3358,7 +3364,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3471,7 +3477,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3486,7 +3492,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3516,13 +3522,13 @@
         <v>148991</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>168</v>
@@ -3531,13 +3537,13 @@
         <v>196813</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M5" s="7">
         <v>326</v>
@@ -3546,13 +3552,13 @@
         <v>345804</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3573,13 @@
         <v>605356</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H6" s="7">
         <v>724</v>
@@ -3582,13 +3588,13 @@
         <v>797847</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M6" s="7">
         <v>1328</v>
@@ -3597,13 +3603,13 @@
         <v>1403203</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,7 +3683,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3692,7 +3698,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3707,7 +3713,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3728,13 @@
         <v>124053</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -3737,13 +3743,13 @@
         <v>85672</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M9" s="7">
         <v>194</v>
@@ -3752,13 +3758,13 @@
         <v>209725</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,13 +3779,13 @@
         <v>1952332</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
         <v>1833</v>
@@ -3788,13 +3794,13 @@
         <v>1902628</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
         <v>3666</v>
@@ -3803,13 +3809,13 @@
         <v>3854960</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,7 +3889,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3913,7 +3919,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,13 +3934,13 @@
         <v>23805</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3943,13 +3949,13 @@
         <v>14694</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3958,13 +3964,13 @@
         <v>38499</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3985,13 @@
         <v>523081</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>512</v>
@@ -3994,13 +4000,13 @@
         <v>534446</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>993</v>
@@ -4009,13 +4015,13 @@
         <v>1057527</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,7 +4125,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4140,13 @@
         <v>296849</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>257</v>
@@ -4149,13 +4155,13 @@
         <v>297179</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>554</v>
@@ -4164,13 +4170,13 @@
         <v>594028</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4191,13 @@
         <v>3080769</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H18" s="7">
         <v>3069</v>
@@ -4200,13 +4206,13 @@
         <v>3234921</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="M18" s="7">
         <v>5987</v>
@@ -4215,13 +4221,13 @@
         <v>6315690</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,7 +4283,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4296,7 +4302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929F054B-65C4-49DB-9C3D-9979EDD6826A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD4B057-368A-40BF-830E-9FCAF9740807}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4313,7 +4319,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4426,7 +4432,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4435,13 +4441,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4456,7 +4462,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,13 +4477,13 @@
         <v>105892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H5" s="7">
         <v>327</v>
@@ -4486,13 +4492,13 @@
         <v>173085</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M5" s="7">
         <v>484</v>
@@ -4501,13 +4507,13 @@
         <v>278977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4528,13 @@
         <v>433197</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H6" s="7">
         <v>1098</v>
@@ -4537,28 +4543,28 @@
         <v>659402</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M6" s="7">
         <v>1629</v>
       </c>
       <c r="N6" s="7">
-        <v>1092599</v>
+        <v>1092598</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,7 +4606,7 @@
         <v>2114</v>
       </c>
       <c r="N7" s="7">
-        <v>1374338</v>
+        <v>1374337</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -4632,7 +4638,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4641,13 +4647,13 @@
         <v>718</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4656,13 +4662,13 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>276</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4683,13 @@
         <v>165609</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H9" s="7">
         <v>180</v>
@@ -4692,13 +4698,13 @@
         <v>95157</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="M9" s="7">
         <v>389</v>
@@ -4707,13 +4713,13 @@
         <v>260766</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4734,13 @@
         <v>1991335</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H10" s="7">
         <v>2737</v>
@@ -4743,19 +4749,19 @@
         <v>2151833</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>291</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>4517</v>
       </c>
       <c r="N10" s="7">
-        <v>4143168</v>
+        <v>4143169</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>292</v>
@@ -4806,7 +4812,7 @@
         <v>4907</v>
       </c>
       <c r="N11" s="7">
-        <v>4404652</v>
+        <v>4404653</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -4838,7 +4844,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4853,7 +4859,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4886,10 +4892,10 @@
         <v>296</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>225</v>
+        <v>297</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -4937,10 +4943,10 @@
         <v>304</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H14" s="7">
         <v>969</v>
@@ -5053,13 +5059,13 @@
         <v>3480</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5068,13 +5074,13 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5095,13 @@
         <v>316347</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>542</v>
@@ -5104,13 +5110,13 @@
         <v>287802</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>966</v>
@@ -5119,13 +5125,13 @@
         <v>604149</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5146,13 @@
         <v>3052725</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>249</v>
+        <v>320</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H18" s="7">
         <v>4804</v>
@@ -5155,13 +5161,13 @@
         <v>3505562</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M18" s="7">
         <v>7738</v>
@@ -5170,13 +5176,13 @@
         <v>6558287</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,7 +5238,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1402-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1402-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F19C48A-F5FE-415F-A9C6-BEB15AD78348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ECA0536-E74B-4F39-95F6-A61BBAF879FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{12589996-1B3D-4C5F-A2DD-D0D1459D7F6E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{574D7F01-C521-4B17-9479-D4B02200DB44}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="322">
   <si>
     <t>Población con diagnóstico de diabetes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>11,84%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
   </si>
   <si>
     <t>13,21%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>88,16%</t>
   </si>
   <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>85,72%</t>
   </si>
   <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>86,79%</t>
   </si>
   <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,55 +164,49 @@
     <t>2,99%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>3,19%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>96,81%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -230,669 +224,660 @@
     <t>2,3%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>0,79%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
   </si>
   <si>
     <t>96,56%</t>
   </si>
   <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>95,06%</t>
   </si>
   <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
     <t>5,92%</t>
   </si>
   <si>
@@ -941,9 +926,6 @@
     <t>1,91%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
     <t>4,64%</t>
   </si>
   <si>
@@ -960,9 +942,6 @@
   </si>
   <si>
     <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
   </si>
   <si>
     <t>98,09%</t>
@@ -1437,7 +1416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD55AE0-F456-455A-B6A8-6043C1731EE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50501C50-0162-448F-A6D5-77327E5E14FA}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1851,10 +1830,10 @@
         <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1866,16 +1845,16 @@
         <v>1597</v>
       </c>
       <c r="D10" s="7">
-        <v>1642750</v>
+        <v>1642751</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>1522</v>
@@ -1884,13 +1863,13 @@
         <v>1554718</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>3119</v>
@@ -1899,13 +1878,13 @@
         <v>3197469</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1917,7 +1896,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -1961,7 +1940,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1979,7 +1958,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1994,7 +1973,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2009,7 +1988,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,13 +2003,13 @@
         <v>12662</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -2039,13 +2018,13 @@
         <v>8431</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -2054,13 +2033,13 @@
         <v>21093</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,13 +2054,13 @@
         <v>538746</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>444</v>
@@ -2090,13 +2069,13 @@
         <v>467981</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>959</v>
@@ -2105,13 +2084,13 @@
         <v>1006727</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,7 +2194,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2209,13 @@
         <v>185467</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>224</v>
@@ -2245,13 +2224,13 @@
         <v>229249</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>416</v>
@@ -2260,13 +2239,13 @@
         <v>414716</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,16 +2257,16 @@
         <v>3022</v>
       </c>
       <c r="D18" s="7">
-        <v>3091077</v>
+        <v>3091076</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>3073</v>
@@ -2296,13 +2275,13 @@
         <v>3149949</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>6095</v>
@@ -2311,13 +2290,13 @@
         <v>6241025</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,7 +2308,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -2373,7 +2352,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2392,7 +2371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35DE600-0B6F-4E1D-B005-142D04C26422}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47313866-7261-4E37-A204-79CFB3054A96}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2409,7 +2388,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2522,7 +2501,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2552,7 +2531,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,13 +2546,13 @@
         <v>170176</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H5" s="7">
         <v>233</v>
@@ -2582,13 +2561,13 @@
         <v>244837</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M5" s="7">
         <v>387</v>
@@ -2597,13 +2576,13 @@
         <v>415013</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,13 +2597,13 @@
         <v>804467</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H6" s="7">
         <v>1014</v>
@@ -2633,13 +2612,13 @@
         <v>1092959</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M6" s="7">
         <v>1768</v>
@@ -2648,13 +2627,13 @@
         <v>1897427</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,7 +2707,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2773,13 +2752,13 @@
         <v>73916</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H9" s="7">
         <v>50</v>
@@ -2788,13 +2767,13 @@
         <v>54361</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M9" s="7">
         <v>121</v>
@@ -2803,13 +2782,13 @@
         <v>128276</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,13 +2803,13 @@
         <v>1890041</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H10" s="7">
         <v>1583</v>
@@ -2839,28 +2818,28 @@
         <v>1700231</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>3368</v>
       </c>
       <c r="N10" s="7">
-        <v>3590273</v>
+        <v>3590274</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,7 +2881,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2916,7 +2895,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2934,7 +2913,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2949,7 +2928,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2964,7 +2943,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,13 +2958,13 @@
         <v>13035</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -2994,13 +2973,13 @@
         <v>7060</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -3009,13 +2988,13 @@
         <v>20095</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3009,13 @@
         <v>468146</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>406</v>
@@ -3045,13 +3024,13 @@
         <v>451571</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>833</v>
@@ -3060,13 +3039,13 @@
         <v>919717</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,7 +3149,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3164,13 @@
         <v>257126</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H17" s="7">
         <v>289</v>
@@ -3200,13 +3179,13 @@
         <v>306258</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>525</v>
@@ -3215,13 +3194,13 @@
         <v>563384</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3215,13 @@
         <v>3162656</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H18" s="7">
         <v>3003</v>
@@ -3251,28 +3230,28 @@
         <v>3244762</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M18" s="7">
         <v>5969</v>
       </c>
       <c r="N18" s="7">
-        <v>6407418</v>
+        <v>6407417</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,7 +3293,7 @@
         <v>6494</v>
       </c>
       <c r="N19" s="7">
-        <v>6970802</v>
+        <v>6970801</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3328,7 +3307,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3347,7 +3326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468BB53A-F748-4251-92BF-82F99E366E11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4A9422-B02F-430E-B6A3-C0C627C35A65}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3364,7 +3343,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3477,7 +3456,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3492,7 +3471,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3522,13 +3501,13 @@
         <v>148991</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>168</v>
@@ -3537,13 +3516,13 @@
         <v>196813</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>326</v>
@@ -3552,13 +3531,13 @@
         <v>345804</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3552,13 @@
         <v>605356</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H6" s="7">
         <v>724</v>
@@ -3588,13 +3567,13 @@
         <v>797847</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M6" s="7">
         <v>1328</v>
@@ -3603,13 +3582,13 @@
         <v>1403203</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,7 +3662,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3698,7 +3677,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3713,7 +3692,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3707,13 @@
         <v>124053</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -3743,13 +3722,13 @@
         <v>85672</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M9" s="7">
         <v>194</v>
@@ -3758,13 +3737,13 @@
         <v>209725</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3758,13 @@
         <v>1952332</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>1833</v>
@@ -3794,13 +3773,13 @@
         <v>1902628</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>3666</v>
@@ -3809,13 +3788,13 @@
         <v>3854960</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,7 +3850,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3889,7 +3868,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3904,7 +3883,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3919,7 +3898,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3913,13 @@
         <v>23805</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3949,13 +3928,13 @@
         <v>14694</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3964,13 +3943,13 @@
         <v>38499</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3964,13 @@
         <v>523081</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>512</v>
@@ -4000,13 +3979,13 @@
         <v>534446</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>993</v>
@@ -4015,13 +3994,13 @@
         <v>1057527</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,7 +4104,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4119,13 @@
         <v>296849</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>257</v>
@@ -4155,13 +4134,13 @@
         <v>297179</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>554</v>
@@ -4170,13 +4149,13 @@
         <v>594028</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4170,13 @@
         <v>3080769</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H18" s="7">
         <v>3069</v>
@@ -4206,13 +4185,13 @@
         <v>3234921</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M18" s="7">
         <v>5987</v>
@@ -4221,13 +4200,13 @@
         <v>6315690</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,7 +4262,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4302,7 +4281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD4B057-368A-40BF-830E-9FCAF9740807}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF128EF-949B-493A-AEE7-FA6741159783}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4319,7 +4298,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4432,7 +4411,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4441,13 +4420,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4456,13 +4435,13 @@
         <v>2762</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4456,13 @@
         <v>105892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H5" s="7">
         <v>327</v>
@@ -4492,13 +4471,13 @@
         <v>173085</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M5" s="7">
         <v>484</v>
@@ -4507,13 +4486,13 @@
         <v>278977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4507,13 @@
         <v>433197</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H6" s="7">
         <v>1098</v>
@@ -4543,13 +4522,13 @@
         <v>659402</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M6" s="7">
         <v>1629</v>
@@ -4558,13 +4537,13 @@
         <v>1092598</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,7 +4617,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4647,13 +4626,13 @@
         <v>718</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4662,7 +4641,7 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
@@ -4683,13 +4662,13 @@
         <v>165609</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H9" s="7">
         <v>180</v>
@@ -4698,13 +4677,13 @@
         <v>95157</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="M9" s="7">
         <v>389</v>
@@ -4713,13 +4692,13 @@
         <v>260766</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4713,13 @@
         <v>1991335</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H10" s="7">
         <v>2737</v>
@@ -4749,13 +4728,13 @@
         <v>2151833</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M10" s="7">
         <v>4517</v>
@@ -4764,13 +4743,13 @@
         <v>4143169</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,7 +4805,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4844,7 +4823,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4859,7 +4838,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4874,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4868,13 @@
         <v>44846</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -4904,13 +4883,13 @@
         <v>19560</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -4919,13 +4898,13 @@
         <v>64406</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +4919,13 @@
         <v>628193</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>969</v>
@@ -4955,13 +4934,13 @@
         <v>694326</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>70</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>1592</v>
@@ -4970,13 +4949,13 @@
         <v>1322520</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5038,13 @@
         <v>3480</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5074,13 +5053,13 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5074,13 @@
         <v>316347</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7">
         <v>542</v>
@@ -5110,13 +5089,13 @@
         <v>287802</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="M17" s="7">
         <v>966</v>
@@ -5125,13 +5104,13 @@
         <v>604149</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5125,13 @@
         <v>3052725</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H18" s="7">
         <v>4804</v>
@@ -5161,13 +5140,13 @@
         <v>3505562</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="M18" s="7">
         <v>7738</v>
@@ -5176,13 +5155,13 @@
         <v>6558287</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,7 +5217,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1402-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1402-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C99BF52-5CAB-42A8-A3C2-198F6B512112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74348F8D-A9CD-4FF2-827D-5C6522EB4290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B0ADABB-2C89-4F4A-BC1A-AE9B624ABB47}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E924E653-8CE1-4B6B-A44B-6443B47A7FEB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -728,208 +728,208 @@
     <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
   </si>
   <si>
     <t>18,61%</t>
   </si>
   <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
   </si>
   <si>
     <t>81,39%</t>
   </si>
   <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>98,18%</t>
   </si>
   <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF9BF87-7067-45A7-8F27-A319AE9DA534}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6033892-0B8A-45A7-BCE0-EFE10848D2D4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1543,7 +1543,7 @@
         <v>2017</v>
       </c>
       <c r="N5" s="7">
-        <v>2036830</v>
+        <v>2036829</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1594,7 +1594,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1668,7 +1668,7 @@
         <v>1597</v>
       </c>
       <c r="D8" s="7">
-        <v>1642750</v>
+        <v>1642751</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1719,7 +1719,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1978,7 +1978,7 @@
         <v>3022</v>
       </c>
       <c r="D14" s="7">
-        <v>3091077</v>
+        <v>3091076</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>76</v>
@@ -1993,7 +1993,7 @@
         <v>3073</v>
       </c>
       <c r="I14" s="7">
-        <v>3149949</v>
+        <v>3149948</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
@@ -2008,7 +2008,7 @@
         <v>6095</v>
       </c>
       <c r="N14" s="7">
-        <v>6241024</v>
+        <v>6241025</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -2029,7 +2029,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2044,7 +2044,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2059,7 +2059,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443F1B46-8DB4-45C7-8537-55AABBECFCA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB0C1F6-6AD4-4322-948B-FC854296A3DE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2279,7 +2279,7 @@
         <v>1014</v>
       </c>
       <c r="I5" s="7">
-        <v>1092959</v>
+        <v>1092960</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>99</v>
@@ -2330,7 +2330,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2449,7 +2449,7 @@
         <v>3368</v>
       </c>
       <c r="N8" s="7">
-        <v>3590274</v>
+        <v>3590273</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>118</v>
@@ -2500,7 +2500,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2604,7 +2604,7 @@
         <v>833</v>
       </c>
       <c r="N11" s="7">
-        <v>919717</v>
+        <v>919718</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>136</v>
@@ -2655,7 +2655,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2843,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDD5578-EAE9-4C64-8AD2-D3730AE5AC49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5C53D4-CEE6-4413-BBA7-BBCD5E42B253}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3355,7 +3355,7 @@
         <v>993</v>
       </c>
       <c r="N11" s="7">
-        <v>1057527</v>
+        <v>1057528</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>209</v>
@@ -3406,7 +3406,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3594,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C96E61-256F-45D4-B3A9-B0627AD70F13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC02A9FB-BC3F-4815-BB65-5E71BE56F18B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3715,7 +3715,7 @@
         <v>157</v>
       </c>
       <c r="D4" s="7">
-        <v>105892</v>
+        <v>100149</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>229</v>
@@ -3730,7 +3730,7 @@
         <v>327</v>
       </c>
       <c r="I4" s="7">
-        <v>173085</v>
+        <v>157625</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>232</v>
@@ -3745,7 +3745,7 @@
         <v>484</v>
       </c>
       <c r="N4" s="7">
-        <v>278977</v>
+        <v>257774</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>235</v>
@@ -3766,7 +3766,7 @@
         <v>531</v>
       </c>
       <c r="D5" s="7">
-        <v>433197</v>
+        <v>412370</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>238</v>
@@ -3781,7 +3781,7 @@
         <v>1098</v>
       </c>
       <c r="I5" s="7">
-        <v>659402</v>
+        <v>594931</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>241</v>
@@ -3796,7 +3796,7 @@
         <v>1629</v>
       </c>
       <c r="N5" s="7">
-        <v>1092598</v>
+        <v>1007301</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>244</v>
@@ -3817,7 +3817,7 @@
         <v>688</v>
       </c>
       <c r="D6" s="7">
-        <v>539089</v>
+        <v>512519</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3832,7 +3832,7 @@
         <v>1425</v>
       </c>
       <c r="I6" s="7">
-        <v>832487</v>
+        <v>752556</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3847,7 +3847,7 @@
         <v>2113</v>
       </c>
       <c r="N6" s="7">
-        <v>1371575</v>
+        <v>1265075</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3870,7 +3870,7 @@
         <v>209</v>
       </c>
       <c r="D7" s="7">
-        <v>165609</v>
+        <v>155737</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>247</v>
@@ -3885,7 +3885,7 @@
         <v>180</v>
       </c>
       <c r="I7" s="7">
-        <v>95157</v>
+        <v>87741</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>250</v>
@@ -3900,7 +3900,7 @@
         <v>389</v>
       </c>
       <c r="N7" s="7">
-        <v>260766</v>
+        <v>243478</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>253</v>
@@ -3921,7 +3921,7 @@
         <v>1780</v>
       </c>
       <c r="D8" s="7">
-        <v>1991335</v>
+        <v>2129192</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>256</v>
@@ -3936,7 +3936,7 @@
         <v>2737</v>
       </c>
       <c r="I8" s="7">
-        <v>2151833</v>
+        <v>2147755</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>259</v>
@@ -3951,7 +3951,7 @@
         <v>4517</v>
       </c>
       <c r="N8" s="7">
-        <v>4143168</v>
+        <v>4276947</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>262</v>
@@ -3972,7 +3972,7 @@
         <v>1989</v>
       </c>
       <c r="D9" s="7">
-        <v>2156944</v>
+        <v>2284929</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3987,7 +3987,7 @@
         <v>2917</v>
       </c>
       <c r="I9" s="7">
-        <v>2246990</v>
+        <v>2235496</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4002,7 +4002,7 @@
         <v>4906</v>
       </c>
       <c r="N9" s="7">
-        <v>4403934</v>
+        <v>4520425</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4025,40 +4025,40 @@
         <v>58</v>
       </c>
       <c r="D10" s="7">
-        <v>44846</v>
+        <v>43362</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
       </c>
       <c r="I10" s="7">
-        <v>19560</v>
+        <v>17863</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
       </c>
       <c r="N10" s="7">
-        <v>64406</v>
+        <v>61226</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>271</v>
@@ -4076,7 +4076,7 @@
         <v>623</v>
       </c>
       <c r="D11" s="7">
-        <v>628193</v>
+        <v>603261</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>273</v>
@@ -4085,31 +4085,31 @@
         <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>969</v>
       </c>
       <c r="I11" s="7">
-        <v>694326</v>
+        <v>642600</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>1592</v>
       </c>
       <c r="N11" s="7">
-        <v>1322520</v>
+        <v>1245860</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>131</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>279</v>
@@ -4127,7 +4127,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4142,7 +4142,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4157,7 +4157,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4180,43 +4180,43 @@
         <v>424</v>
       </c>
       <c r="D13" s="7">
-        <v>316347</v>
+        <v>299249</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>542</v>
       </c>
       <c r="I13" s="7">
-        <v>287802</v>
+        <v>263229</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>966</v>
       </c>
       <c r="N13" s="7">
-        <v>604149</v>
+        <v>562478</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>288</v>
@@ -4231,46 +4231,46 @@
         <v>2934</v>
       </c>
       <c r="D14" s="7">
-        <v>3052725</v>
+        <v>3144823</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>4804</v>
       </c>
       <c r="I14" s="7">
-        <v>3505561</v>
+        <v>3385286</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>7738</v>
       </c>
       <c r="N14" s="7">
-        <v>6558287</v>
+        <v>6530108</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4282,7 @@
         <v>3358</v>
       </c>
       <c r="D15" s="7">
-        <v>3369072</v>
+        <v>3444072</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4297,7 +4297,7 @@
         <v>5346</v>
       </c>
       <c r="I15" s="7">
-        <v>3793363</v>
+        <v>3648515</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4312,7 +4312,7 @@
         <v>8704</v>
       </c>
       <c r="N15" s="7">
-        <v>7162436</v>
+        <v>7092586</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
